--- a/Documents/Bang ke Hoach CTDL&GT.xlsx
+++ b/Documents/Bang ke Hoach CTDL&GT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leman\Dropbox\SourceCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leman\Documents\GitHub\CauTrucDuLieu\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Đề tài: Xây dựng ứng dụng Caculator</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Lê Mạnh Hùng - 15110058</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Bá Lê An - </t>
-  </si>
-  <si>
     <t>Tạo các Tool box trên WinForm</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Tạo sự kiện Click cho các Button</t>
   </si>
   <si>
-    <t>Tạo sự kiện KeyDown cho các Button</t>
-  </si>
-  <si>
     <t>Hàm tính toán giá trị biểu thức hậu tố</t>
   </si>
   <si>
@@ -93,6 +87,13 @@
   </si>
   <si>
     <t>20/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Bá Lê An - 15110001
+</t>
+  </si>
+  <si>
+    <t>23/11/2018</t>
   </si>
 </sst>
 </file>
@@ -307,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -365,6 +366,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -691,7 +695,7 @@
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="27.140625" style="2" customWidth="1"/>
@@ -712,11 +716,11 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+      <c r="D3" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -752,10 +756,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -763,14 +767,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="18" t="s">
-        <v>10</v>
       </c>
       <c r="F7" s="19">
         <v>43261</v>
@@ -787,12 +791,12 @@
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="19">
         <v>43383</v>
       </c>
@@ -811,12 +815,12 @@
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10"/>
       <c r="E9" s="19">
         <v>43383</v>
       </c>
@@ -839,19 +843,19 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -859,47 +863,36 @@
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documents/Bang ke Hoach CTDL&GT.xlsx
+++ b/Documents/Bang ke Hoach CTDL&GT.xlsx
@@ -74,9 +74,6 @@
     <t>Tạo sự kiện Click cho các Button</t>
   </si>
   <si>
-    <t>Hàm tính toán giá trị biểu thức hậu tố</t>
-  </si>
-  <si>
     <t>13/10/2018</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>23/11/2018</t>
+  </si>
+  <si>
+    <t>Hàm tính toán giá trị biểu thức trung tố</t>
   </si>
 </sst>
 </file>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="D3" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -846,16 +846,16 @@
         <v>12</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>12</v>
@@ -872,16 +872,16 @@
         <v>12</v>
       </c>
       <c r="E11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="H11" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
